--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Col4a6</t>
+  </si>
+  <si>
+    <t>Cd93</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Col4a6</t>
-  </si>
-  <si>
-    <t>Cd93</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03106633333333333</v>
+        <v>0.9795656666666667</v>
       </c>
       <c r="H2">
-        <v>0.093199</v>
+        <v>2.938697</v>
       </c>
       <c r="I2">
-        <v>0.009330498513261214</v>
+        <v>0.2969748092101394</v>
       </c>
       <c r="J2">
-        <v>0.009330498513261214</v>
+        <v>0.2969748092101394</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N2">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q2">
-        <v>3.874673182340667</v>
+        <v>89.64133183681788</v>
       </c>
       <c r="R2">
-        <v>34.872058641066</v>
+        <v>806.7719865313609</v>
       </c>
       <c r="S2">
-        <v>0.009113388479713918</v>
+        <v>0.2876355400784788</v>
       </c>
       <c r="T2">
-        <v>0.009113388479713918</v>
+        <v>0.2876355400784789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03106633333333333</v>
+        <v>0.9795656666666667</v>
       </c>
       <c r="H3">
-        <v>0.093199</v>
+        <v>2.938697</v>
       </c>
       <c r="I3">
-        <v>0.009330498513261214</v>
+        <v>0.2969748092101394</v>
       </c>
       <c r="J3">
-        <v>0.009330498513261214</v>
+        <v>0.2969748092101394</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.404136</v>
       </c>
       <c r="O3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q3">
-        <v>0.004185007896</v>
+        <v>0.131959250088</v>
       </c>
       <c r="R3">
-        <v>0.037665071064</v>
+        <v>1.187633250792</v>
       </c>
       <c r="S3">
-        <v>9.84330831326483E-06</v>
+        <v>0.0004234226487900462</v>
       </c>
       <c r="T3">
-        <v>9.84330831326483E-06</v>
+        <v>0.0004234226487900464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03106633333333333</v>
+        <v>0.9795656666666667</v>
       </c>
       <c r="H4">
-        <v>0.093199</v>
+        <v>2.938697</v>
       </c>
       <c r="I4">
-        <v>0.009330498513261214</v>
+        <v>0.2969748092101394</v>
       </c>
       <c r="J4">
-        <v>0.009330498513261214</v>
+        <v>0.2969748092101394</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N4">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q4">
-        <v>0.08812208802944446</v>
+        <v>2.778614746143889</v>
       </c>
       <c r="R4">
-        <v>0.7930987922650001</v>
+        <v>25.007532715295</v>
       </c>
       <c r="S4">
-        <v>0.0002072667252340319</v>
+        <v>0.00891584648287053</v>
       </c>
       <c r="T4">
-        <v>0.0002072667252340319</v>
+        <v>0.00891584648287053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9795656666666667</v>
+        <v>2.318915</v>
       </c>
       <c r="H5">
-        <v>2.938697</v>
+        <v>6.956745</v>
       </c>
       <c r="I5">
-        <v>0.2942038861943281</v>
+        <v>0.7030251907898606</v>
       </c>
       <c r="J5">
-        <v>0.2942038861943281</v>
+        <v>0.7030251907898607</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N5">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q5">
-        <v>122.1739552669553</v>
+        <v>212.2069362881317</v>
       </c>
       <c r="R5">
-        <v>1099.565597402598</v>
+        <v>1909.862426593185</v>
       </c>
       <c r="S5">
-        <v>0.2873580981037334</v>
+        <v>0.6809164419684156</v>
       </c>
       <c r="T5">
-        <v>0.2873580981037334</v>
+        <v>0.6809164419684157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9795656666666667</v>
+        <v>2.318915</v>
       </c>
       <c r="H6">
-        <v>2.938697</v>
+        <v>6.956745</v>
       </c>
       <c r="I6">
-        <v>0.2942038861943281</v>
+        <v>0.7030251907898606</v>
       </c>
       <c r="J6">
-        <v>0.2942038861943281</v>
+        <v>0.7030251907898607</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.404136</v>
       </c>
       <c r="O6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q6">
-        <v>0.131959250088</v>
+        <v>0.31238567748</v>
       </c>
       <c r="R6">
-        <v>1.187633250792</v>
+        <v>2.81147109732</v>
       </c>
       <c r="S6">
-        <v>0.0003103735084096011</v>
+        <v>0.001002363766954167</v>
       </c>
       <c r="T6">
-        <v>0.0003103735084096011</v>
+        <v>0.001002363766954168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9795656666666667</v>
+        <v>2.318915</v>
       </c>
       <c r="H7">
-        <v>2.938697</v>
+        <v>6.956745</v>
       </c>
       <c r="I7">
-        <v>0.2942038861943281</v>
+        <v>0.7030251907898606</v>
       </c>
       <c r="J7">
-        <v>0.2942038861943281</v>
+        <v>0.7030251907898607</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N7">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q7">
-        <v>2.778614746143889</v>
+        <v>6.577784045841667</v>
       </c>
       <c r="R7">
-        <v>25.007532715295</v>
+        <v>59.20005641257499</v>
       </c>
       <c r="S7">
-        <v>0.006535414582185149</v>
+        <v>0.02110638505449087</v>
       </c>
       <c r="T7">
-        <v>0.00653541458218515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.318915</v>
-      </c>
-      <c r="H8">
-        <v>6.956745</v>
-      </c>
-      <c r="I8">
-        <v>0.6964656152924107</v>
-      </c>
-      <c r="J8">
-        <v>0.6964656152924107</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>124.722578</v>
-      </c>
-      <c r="N8">
-        <v>374.167734</v>
-      </c>
-      <c r="O8">
-        <v>0.9767311432246923</v>
-      </c>
-      <c r="P8">
-        <v>0.9767311432246923</v>
-      </c>
-      <c r="Q8">
-        <v>289.22105696287</v>
-      </c>
-      <c r="R8">
-        <v>2602.98951266583</v>
-      </c>
-      <c r="S8">
-        <v>0.6802596566412451</v>
-      </c>
-      <c r="T8">
-        <v>0.6802596566412451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.318915</v>
-      </c>
-      <c r="H9">
-        <v>6.956745</v>
-      </c>
-      <c r="I9">
-        <v>0.6964656152924107</v>
-      </c>
-      <c r="J9">
-        <v>0.6964656152924107</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.134712</v>
-      </c>
-      <c r="N9">
-        <v>0.404136</v>
-      </c>
-      <c r="O9">
-        <v>0.001054960600366076</v>
-      </c>
-      <c r="P9">
-        <v>0.001054960600366076</v>
-      </c>
-      <c r="Q9">
-        <v>0.31238567748</v>
-      </c>
-      <c r="R9">
-        <v>2.81147109732</v>
-      </c>
-      <c r="S9">
-        <v>0.0007347437836432102</v>
-      </c>
-      <c r="T9">
-        <v>0.0007347437836432102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.318915</v>
-      </c>
-      <c r="H10">
-        <v>6.956745</v>
-      </c>
-      <c r="I10">
-        <v>0.6964656152924107</v>
-      </c>
-      <c r="J10">
-        <v>0.6964656152924107</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.836578333333334</v>
-      </c>
-      <c r="N10">
-        <v>8.509735000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.02221389617494163</v>
-      </c>
-      <c r="P10">
-        <v>0.02221389617494163</v>
-      </c>
-      <c r="Q10">
-        <v>6.577784045841668</v>
-      </c>
-      <c r="R10">
-        <v>59.200056412575</v>
-      </c>
-      <c r="S10">
-        <v>0.01547121486752245</v>
-      </c>
-      <c r="T10">
-        <v>0.01547121486752245</v>
+        <v>0.02110638505449087</v>
       </c>
     </row>
   </sheetData>
